--- a/results/summary_node_classification_GCN_borf.csv.xlsx
+++ b/results/summary_node_classification_GCN_borf.csv.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,10 +486,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2708355263157895</v>
+        <v>0.2677960526315789</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0018229317009009</v>
+        <v>0.0026227070845833</v>
       </c>
     </row>
     <row r="3">
@@ -498,10 +498,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2724539473684211</v>
+        <v>0.2673552631578947</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0016071661498553</v>
+        <v>0.0023104588768482</v>
       </c>
     </row>
     <row r="4">
@@ -510,15 +510,87 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2712763157894737</v>
+        <v>0.2679934210526316</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0015619945165736</v>
+        <v>0.0022964484653517</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2676184210526316</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0025734756669357</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2659671052631579</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0023398758608783</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2689868421052631</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0025071932525316</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2678092105263158</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.002725956019241</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2681907894736842</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0027791750679242</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2682302631578947</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0024398792457972</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A2:A10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/summary_node_classification_GCN_borf.csv.xlsx
+++ b/results/summary_node_classification_GCN_borf.csv.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,16 @@
           <t>ci</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>borf_batch_add</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>borf_batch_remove</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -491,6 +501,12 @@
       <c r="D2" t="n">
         <v>0.0026227070845833</v>
       </c>
+      <c r="E2" t="n">
+        <v>40</v>
+      </c>
+      <c r="F2" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
@@ -503,6 +519,12 @@
       <c r="D3" t="n">
         <v>0.0023104588768482</v>
       </c>
+      <c r="E3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
@@ -515,6 +537,12 @@
       <c r="D4" t="n">
         <v>0.0022964484653517</v>
       </c>
+      <c r="E4" t="n">
+        <v>30</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -527,6 +555,12 @@
       <c r="D5" t="n">
         <v>0.0025734756669357</v>
       </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -539,6 +573,12 @@
       <c r="D6" t="n">
         <v>0.0023398758608783</v>
       </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
@@ -551,6 +591,12 @@
       <c r="D7" t="n">
         <v>0.0025071932525316</v>
       </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -563,6 +609,12 @@
       <c r="D8" t="n">
         <v>0.002725956019241</v>
       </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -575,6 +627,12 @@
       <c r="D9" t="n">
         <v>0.0027791750679242</v>
       </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
@@ -586,6 +644,12 @@
       </c>
       <c r="D10" t="n">
         <v>0.0024398792457972</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/results/summary_node_classification_GCN_borf.csv.xlsx
+++ b/results/summary_node_classification_GCN_borf.csv.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -652,9 +652,68 @@
         <v>10</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>pubmed</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8481389452332657</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0010099510438071</v>
+      </c>
+      <c r="E11" t="n">
+        <v>30</v>
+      </c>
+      <c r="F11" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8481161257606493</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.001154861500881</v>
+      </c>
+      <c r="E12" t="n">
+        <v>30</v>
+      </c>
+      <c r="F12" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8480907707910751</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.001058311813389</v>
+      </c>
+      <c r="E13" t="n">
+        <v>20</v>
+      </c>
+      <c r="F13" t="n">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/summary_node_classification_GCN_borf.csv.xlsx
+++ b/results/summary_node_classification_GCN_borf.csv.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,10 +710,122 @@
         <v>20</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8503772819472616</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0009559596925578</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8473326572008112</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0010502291615824</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8473985801217039</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0010092684419902</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8479361054766733</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0009384112303121</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8475354969574036</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0010700609449762</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>squirrel</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3932853025936599</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.003294345207408</v>
+      </c>
+      <c r="E19" t="n">
+        <v>20</v>
+      </c>
+      <c r="F19" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A11:A18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/summary_node_classification_GCN_borf.csv.xlsx
+++ b/results/summary_node_classification_GCN_borf.csv.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -734,16 +734,16 @@
         <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8473326572008112</v>
+        <v>0.851300709939148</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0010502291615824</v>
+        <v>0.0007839387575317</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -752,13 +752,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8473985801217039</v>
+        <v>0.8512753549695741</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0010092684419902</v>
+        <v>0.0007424203530433</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
         <v>3</v>
@@ -770,13 +770,13 @@
         <v>20</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8479361054766733</v>
+        <v>0.8516582150101418</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0009384112303121</v>
+        <v>0.0008899217238591001</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>30</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8475354969574036</v>
+        <v>0.8516404665314403</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0010700609449762</v>
+        <v>0.0008329917512581</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -810,22 +810,59 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3932853025936599</v>
+        <v>0.4058885686839577</v>
       </c>
       <c r="D19" t="n">
-        <v>0.003294345207408</v>
+        <v>0.0023036263798053</v>
       </c>
       <c r="E19" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F19" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4066474543707973</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0025117283012938</v>
+      </c>
+      <c r="E20" t="n">
+        <v>40</v>
+      </c>
+      <c r="F20" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4067723342939482</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0023834670806857</v>
+      </c>
+      <c r="E21" t="n">
+        <v>40</v>
+      </c>
+      <c r="F21" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A11:A18"/>
+    <mergeCell ref="A19:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
